--- a/biology/Médecine/Isabelle_Fromantin/Isabelle_Fromantin.xlsx
+++ b/biology/Médecine/Isabelle_Fromantin/Isabelle_Fromantin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Fromantin est une infirmière française née en 1970.
 </t>
@@ -511,9 +523,11 @@
           <t>Etudes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Fromantin obtient son diplôme d'infirmière en 1992 à Paris, puis part un an au Togo en tant que bénévole pour exercer son métier dans un hôpital d'enfants, en brousse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Fromantin obtient son diplôme d'infirmière en 1992 à Paris, puis part un an au Togo en tant que bénévole pour exercer son métier dans un hôpital d'enfants, en brousse.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À son retour en France, elle intègre l'Institut Curie.
 En 1996, elle participe à la création de l'Unité mobile d'accompagnement et de soins continus (UMASC), qui assure une activité transversale pour s’occuper des personnes en fin de vie et mieux gérer les symptômes, le soin des plaies tumorales va devenir son domaine de spécialité.
 Quand Isabelle Fromantin intègre la toute première équipe de soins palliatifs de Curie, en 1997, elle est confrontée aux escarres et plaies tumorales qui ne guérissent jamais et auxquelles aucun pansement n’est adapté. Elle approfondit alors ses connaissances en s'informant sur l'état des recherches dans ce domaine, en France et à l’étranger.
 En 2001, elle crée une consultation infirmière spécialisée dans la prise en charge des plaies chroniques.
-Isabelle Fromantin démarre un travail de recherche sur la chronicisation des plaies tumorales qui aboutit en 2009 à une thèse en Sciences de la vie et de la santé, à l'université de Cergy-Pontoise. Elle concentre ses recherches sur les plaies tumorales du sein, en travaillant avec des chimistes sur le problème des bactéries et des odeurs qui se dégagent de ces plaies et qui ont des conséquences psychologiques et sociales[2],[3]. Cette même année, elle est promue chevalière dans l'ordre national du Mérite [4].
+Isabelle Fromantin démarre un travail de recherche sur la chronicisation des plaies tumorales qui aboutit en 2009 à une thèse en Sciences de la vie et de la santé, à l'université de Cergy-Pontoise. Elle concentre ses recherches sur les plaies tumorales du sein, en travaillant avec des chimistes sur le problème des bactéries et des odeurs qui se dégagent de ces plaies et qui ont des conséquences psychologiques et sociales,. Cette même année, elle est promue chevalière dans l'ordre national du Mérite .
 En décembre 2012, elle devient la première infirmière française docteur en science et ingénierie. Elle raconte son parcours dans un livre : Une plaie vivante (Fleur de Lys, Québec).
-Elle poursuit ses recherches et développe un nouveau pansement anti-odeurs pour les plaies malodorante, breveté en 2016[5].
+Elle poursuit ses recherches et développe un nouveau pansement anti-odeurs pour les plaies malodorante, breveté en 2016.
 En parallèle, elle crée un collectif composé de cliniciens, chimistes, vétérinaires, cynophiles (….) et développe le projet KDOG-Curie, qui a pour objectif d’utiliser les molécules odorantes pour détecter le cancer du sein. Deux types de recherches sont menées en parallèle : avec des chiens de détection (KDOG) et en chimie analytique (KDOG COV) avec l’aide de l’IRCGN (Institut de Recherche Criminelle de la Gendarmerie Nationale). Elle raconte cette recherche avec Sandra Kollender dans un nouveau livre : Blouse blanche et poils de chiens (éd. Lamartinière).
 Engagée dans l’évolution de la profession infirmière, Isabelle Fromantin est co-responsable du master 2 et diplôme d’État de pratique avancée infirmière en onco-hématologie à l’université Paris-Est-Créteil. En 2019, elle soutient son Habilitation à Diriger des Recherches dans cette même université, dans le but de pouvoir accompagner des paramédicaux qui souhaiteraient à leur tour faire une thèse de sciences.
 </t>
@@ -581,11 +597,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Ruban Rose 2017
 Chevalière dans l'ordre national du Mérite en 2009
-Chevalière de la Légion d'honneur en 2015[6]</t>
+Chevalière de la Légion d'honneur en 2015</t>
         </is>
       </c>
     </row>
@@ -613,7 +631,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Isabelle Fromantin, Une plaie vivante, Fondation littéraire Fleur de lys, 2006, 320 p. (ISBN 978-2-89612-173-1)
 Isabelle Fromantin, Blouse blanche et poils de chien, Paris, Editions de la Martinière, 2018, 240 p. (ISBN 978-2-7324-8580-5)</t>
